--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,52 +40,40 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>complaints</t>
+    <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
@@ -94,13 +82,16 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>shortage</t>
   </si>
   <si>
     <t>risk</t>
@@ -109,22 +100,7 @@
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -133,226 +109,253 @@
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>toilet</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,10 +721,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -782,10 +785,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -800,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -829,13 +832,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -847,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -879,13 +882,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -897,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -929,13 +932,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -947,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -971,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,13 +982,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -997,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1021,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,13 +1032,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1047,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1079,13 +1082,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8181818181818182</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1097,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.9019607843137255</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1121,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,13 +1132,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7792207792207793</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1147,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1179,38 +1182,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7647058823529411</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L11">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L11">
-        <v>8</v>
-      </c>
-      <c r="M11">
-        <v>8</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,13 +1232,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1247,31 +1250,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="L12">
+        <v>19</v>
+      </c>
+      <c r="M12">
+        <v>19</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>3</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <v>8</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,13 +1282,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7272727272727273</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1297,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1321,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,13 +1332,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7142857142857143</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1347,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1371,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1379,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>0.3062015503875969</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1397,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>358</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.8571428571428571</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1421,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1429,13 +1432,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1447,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.8461538461538461</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1471,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1479,13 +1482,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5833333333333334</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1497,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.8235294117647058</v>
+        <v>0.796875</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1521,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1529,13 +1532,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5294117647058824</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1547,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.8181818181818182</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1571,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1579,13 +1582,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5107296137339056</v>
+        <v>0.225</v>
       </c>
       <c r="C19">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1597,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.8181818181818182</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1621,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1629,7 +1632,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4642857142857143</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -1647,31 +1650,31 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>46</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="L20">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <v>48</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>15</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L20">
-        <v>22</v>
-      </c>
-      <c r="M20">
-        <v>22</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1679,49 +1682,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4375</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>62</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>0.75</v>
+      </c>
+      <c r="L21">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>21</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>7</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>9</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1729,13 +1732,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4375</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1747,19 +1750,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.7777777777777778</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1771,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1779,13 +1782,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4210526315789473</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1797,19 +1800,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.7777777777777778</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1821,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1829,13 +1832,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3793103448275862</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1847,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.7758620689655172</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L24">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1879,845 +1882,629 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3375</v>
+        <v>0.08086253369272237</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
+        <v>341</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L25">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="L26">
+        <v>86</v>
+      </c>
+      <c r="M26">
+        <v>86</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L27">
+        <v>36</v>
+      </c>
+      <c r="M27">
+        <v>36</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="L28">
+        <v>74</v>
+      </c>
+      <c r="M28">
+        <v>74</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29">
+        <v>0.68</v>
+      </c>
+      <c r="L29">
+        <v>34</v>
+      </c>
+      <c r="M29">
+        <v>34</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30">
+        <v>0.675</v>
+      </c>
+      <c r="L30">
+        <v>108</v>
+      </c>
+      <c r="M30">
+        <v>108</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31">
+        <v>0.6083550913838121</v>
+      </c>
+      <c r="L31">
+        <v>233</v>
+      </c>
+      <c r="M31">
+        <v>233</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L33">
+        <v>16</v>
+      </c>
+      <c r="M33">
+        <v>16</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35">
+        <v>0.5730337078651685</v>
+      </c>
+      <c r="L35">
+        <v>51</v>
+      </c>
+      <c r="M35">
+        <v>51</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L36">
+        <v>16</v>
+      </c>
+      <c r="M36">
+        <v>16</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>0.5638297872340425</v>
+      </c>
+      <c r="L37">
         <v>53</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25">
-        <v>0.75</v>
-      </c>
-      <c r="L25">
-        <v>9</v>
-      </c>
-      <c r="M25">
-        <v>9</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.2826086956521739</v>
-      </c>
-      <c r="C26">
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <v>13</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="M37">
+        <v>53</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <v>0.55</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39">
+        <v>0.5205882352941177</v>
+      </c>
+      <c r="L39">
+        <v>177</v>
+      </c>
+      <c r="M39">
+        <v>177</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="L40">
         <v>33</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26">
-        <v>0.7254901960784313</v>
-      </c>
-      <c r="L26">
+      <c r="M40">
+        <v>33</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <v>14</v>
+      </c>
+      <c r="M41">
+        <v>14</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42">
+        <v>0.4813559322033898</v>
+      </c>
+      <c r="L42">
+        <v>142</v>
+      </c>
+      <c r="M42">
+        <v>142</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43">
+        <v>0.4743589743589743</v>
+      </c>
+      <c r="L43">
         <v>37</v>
       </c>
-      <c r="M26">
+      <c r="M43">
         <v>37</v>
       </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="L44">
+        <v>21</v>
+      </c>
+      <c r="M44">
+        <v>21</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45">
+        <v>0.4560669456066946</v>
+      </c>
+      <c r="L45">
+        <v>109</v>
+      </c>
+      <c r="M45">
+        <v>109</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="L46">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>19</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L27">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>21</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="M46">
+        <v>14</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L47">
+        <v>15</v>
+      </c>
+      <c r="M47">
+        <v>15</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>20</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L28">
-        <v>28</v>
-      </c>
-      <c r="M28">
-        <v>28</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="C29">
-        <v>22</v>
-      </c>
-      <c r="D29">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>64</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L29">
-        <v>17</v>
-      </c>
-      <c r="M29">
-        <v>17</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="C30">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>29</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30">
-        <v>0.7</v>
-      </c>
-      <c r="L30">
-        <v>7</v>
-      </c>
-      <c r="M30">
-        <v>7</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>26</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31">
-        <v>0.6986301369863014</v>
-      </c>
-      <c r="L31">
-        <v>51</v>
-      </c>
-      <c r="M31">
-        <v>51</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.1636363636363636</v>
-      </c>
-      <c r="C32">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <v>18</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>92</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32">
-        <v>0.68</v>
-      </c>
-      <c r="L32">
-        <v>17</v>
-      </c>
-      <c r="M32">
-        <v>17</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.1021505376344086</v>
-      </c>
-      <c r="C33">
-        <v>19</v>
-      </c>
-      <c r="D33">
-        <v>19</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>167</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33">
-        <v>0.6572769953051644</v>
-      </c>
-      <c r="L33">
-        <v>140</v>
-      </c>
-      <c r="M33">
-        <v>140</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.00715679895901106</v>
-      </c>
-      <c r="C34">
-        <v>11</v>
-      </c>
-      <c r="D34">
-        <v>38</v>
-      </c>
-      <c r="E34">
-        <v>0.71</v>
-      </c>
-      <c r="F34">
-        <v>0.29</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1526</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K34">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L34">
-        <v>11</v>
-      </c>
-      <c r="M34">
-        <v>11</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35">
-        <v>0.64</v>
-      </c>
-      <c r="L35">
-        <v>16</v>
-      </c>
-      <c r="M35">
-        <v>16</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36">
-        <v>0.6</v>
-      </c>
-      <c r="L36">
-        <v>12</v>
-      </c>
-      <c r="M36">
-        <v>12</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L37">
-        <v>7</v>
-      </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K38">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="L38">
-        <v>15</v>
-      </c>
-      <c r="M38">
-        <v>15</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K39">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L39">
-        <v>19</v>
-      </c>
-      <c r="M39">
-        <v>19</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L40">
-        <v>80</v>
-      </c>
-      <c r="M40">
-        <v>80</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41">
-        <v>0.55</v>
-      </c>
-      <c r="L41">
-        <v>11</v>
-      </c>
-      <c r="M41">
-        <v>11</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K42">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="L42">
-        <v>12</v>
-      </c>
-      <c r="M42">
-        <v>12</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K43">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L43">
-        <v>7</v>
-      </c>
-      <c r="M43">
-        <v>7</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K44">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="L44">
-        <v>10</v>
-      </c>
-      <c r="M44">
-        <v>10</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K45">
-        <v>0.52</v>
-      </c>
-      <c r="L45">
-        <v>13</v>
-      </c>
-      <c r="M45">
-        <v>13</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K46">
-        <v>0.5116279069767442</v>
-      </c>
-      <c r="L46">
-        <v>66</v>
-      </c>
-      <c r="M46">
-        <v>66</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K47">
-        <v>0.5108695652173914</v>
-      </c>
-      <c r="L47">
-        <v>47</v>
-      </c>
-      <c r="M47">
-        <v>47</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K48">
-        <v>0.5</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L48">
         <v>14</v>
@@ -2735,21 +2522,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.5</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2761,21 +2548,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.46875</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2787,21 +2574,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="L51">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2813,21 +2600,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.4054054054054054</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2839,21 +2626,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.4</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2865,15 +2652,15 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.3421052631578947</v>
+        <v>0.325</v>
       </c>
       <c r="L54">
         <v>13</v>
@@ -2891,47 +2678,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.3225806451612903</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L55">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.3043478260869565</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L56">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2943,21 +2730,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.2352941176470588</v>
+        <v>0.25</v>
       </c>
       <c r="L57">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2969,21 +2756,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.1842105263157895</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2995,21 +2782,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K59">
-        <v>0.1590909090909091</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L59">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3021,21 +2808,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>0.1451612903225807</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="L60">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M60">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3047,47 +2834,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>53</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K61">
-        <v>0.1212121212121212</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>174</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K62">
-        <v>0.1126760563380282</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L62">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="M62">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3099,21 +2886,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>63</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K63">
-        <v>0.1044776119402985</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="L63">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3125,21 +2912,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>60</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K64">
-        <v>0.09375</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L64">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M64">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3151,21 +2938,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K65">
-        <v>0.08133971291866028</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3177,21 +2964,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K66">
-        <v>0.07317073170731707</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="L66">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M66">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3208,94 +2995,94 @@
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K67">
-        <v>0.05333333333333334</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L67">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M67">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>142</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K68">
-        <v>0.04761904761904762</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>300</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K69">
-        <v>0.04288939051918736</v>
+        <v>0.07033639143730887</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>424</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K70">
-        <v>0.03571428571428571</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3307,137 +3094,371 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>270</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K71">
-        <v>0.03491495076096687</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L71">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="M71">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="N71">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1078</v>
+        <v>833</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K72">
-        <v>0.03051643192488263</v>
+        <v>0.06011560693641618</v>
       </c>
       <c r="L72">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M72">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>413</v>
+        <v>813</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="K73">
-        <v>0.01738570508692852</v>
+        <v>0.05519480519480519</v>
       </c>
       <c r="L73">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M73">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N73">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>1526</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K74">
-        <v>0.01627906976744186</v>
+        <v>0.05327413984461709</v>
       </c>
       <c r="L74">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="M74">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="N74">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>423</v>
+        <v>853</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K75">
+        <v>0.04636785162287481</v>
+      </c>
+      <c r="L75">
+        <v>30</v>
+      </c>
+      <c r="M75">
+        <v>33</v>
+      </c>
+      <c r="N75">
+        <v>0.91</v>
+      </c>
+      <c r="O75">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K76">
+        <v>0.04626334519572953</v>
+      </c>
+      <c r="L76">
+        <v>13</v>
+      </c>
+      <c r="M76">
+        <v>13</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K77">
+        <v>0.04590163934426229</v>
+      </c>
+      <c r="L77">
+        <v>14</v>
+      </c>
+      <c r="M77">
+        <v>15</v>
+      </c>
+      <c r="N77">
+        <v>0.93</v>
+      </c>
+      <c r="O77">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K78">
+        <v>0.04526748971193416</v>
+      </c>
+      <c r="L78">
+        <v>22</v>
+      </c>
+      <c r="M78">
+        <v>22</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79">
+        <v>0.04174484052532833</v>
+      </c>
+      <c r="L79">
+        <v>89</v>
+      </c>
+      <c r="M79">
+        <v>100</v>
+      </c>
+      <c r="N79">
+        <v>0.89</v>
+      </c>
+      <c r="O79">
+        <v>0.11</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K80">
+        <v>0.0293832741362609</v>
+      </c>
+      <c r="L80">
+        <v>91</v>
+      </c>
+      <c r="M80">
+        <v>101</v>
+      </c>
+      <c r="N80">
+        <v>0.9</v>
+      </c>
+      <c r="O80">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K81">
+        <v>0.02292768959435626</v>
+      </c>
+      <c r="L81">
+        <v>13</v>
+      </c>
+      <c r="M81">
+        <v>13</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K82">
+        <v>0.02282157676348548</v>
+      </c>
+      <c r="L82">
+        <v>22</v>
+      </c>
+      <c r="M82">
+        <v>26</v>
+      </c>
+      <c r="N82">
+        <v>0.85</v>
+      </c>
+      <c r="O82">
+        <v>0.15</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K75">
-        <v>0.01068510370835952</v>
-      </c>
-      <c r="L75">
-        <v>17</v>
-      </c>
-      <c r="M75">
-        <v>23</v>
-      </c>
-      <c r="N75">
-        <v>0.74</v>
-      </c>
-      <c r="O75">
-        <v>0.26</v>
-      </c>
-      <c r="P75" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q75">
-        <v>1574</v>
+      <c r="K83">
+        <v>0.01630094043887147</v>
+      </c>
+      <c r="L83">
+        <v>52</v>
+      </c>
+      <c r="M83">
+        <v>63</v>
+      </c>
+      <c r="N83">
+        <v>0.83</v>
+      </c>
+      <c r="O83">
+        <v>0.17</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K84">
+        <v>0.01380500431406385</v>
+      </c>
+      <c r="L84">
+        <v>16</v>
+      </c>
+      <c r="M84">
+        <v>18</v>
+      </c>
+      <c r="N84">
+        <v>0.89</v>
+      </c>
+      <c r="O84">
+        <v>0.11</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,277 +43,274 @@
     <t>killed</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>beauty</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>dear</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>good</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>increased</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>want</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>want</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>retail</t>
   </si>
   <si>
-    <t>health</t>
+    <t>home</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>home</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>store</t>
@@ -322,34 +319,19 @@
     <t>supermarket</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>food</t>
   </si>
   <si>
     <t>toilet</t>
   </si>
   <si>
-    <t>food</t>
+    <t>people</t>
   </si>
   <si>
     <t>corona</t>
@@ -713,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,10 +703,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -803,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -832,37 +814,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -882,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -924,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -950,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>0.9661016949152542</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -974,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -982,13 +964,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6301369863013698</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C7">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1000,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.9615384615384616</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1032,13 +1014,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5769230769230769</v>
+        <v>0.6472602739726028</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1050,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.9393939393939394</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1074,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,37 +1064,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.52</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>13</v>
       </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1124,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1132,13 +1114,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5172413793103449</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1150,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1174,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1182,13 +1164,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4871794871794872</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.8666666666666667</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1224,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1232,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4333333333333333</v>
+        <v>0.32</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1250,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.8636363636363636</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1282,49 +1264,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3947368421052632</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C13">
+        <v>155</v>
+      </c>
+      <c r="D13">
+        <v>155</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>361</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L13">
+        <v>67</v>
+      </c>
+      <c r="M13">
+        <v>67</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>15</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>23</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L13">
-        <v>23</v>
-      </c>
-      <c r="M13">
-        <v>23</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1332,13 +1314,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3529411764705883</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1350,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.8448275862068966</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1374,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1382,13 +1364,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3062015503875969</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C15">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1400,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>358</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>0.8392857142857143</v>
+        <v>0.8125</v>
       </c>
       <c r="L15">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1424,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1432,13 +1414,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2933333333333333</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1450,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.8292682926829268</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L16">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1474,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1482,13 +1464,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2909090909090909</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1500,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.796875</v>
+        <v>0.7734375</v>
       </c>
       <c r="L17">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M17">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1524,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1532,13 +1514,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2592592592592592</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C18">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1550,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>0.7916666666666666</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1574,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1582,13 +1564,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.225</v>
+        <v>0.1625</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1600,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1624,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1632,13 +1614,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2203389830508475</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1650,19 +1632,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>216</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K20">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1674,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1682,37 +1664,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1948051948051948</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>62</v>
+        <v>351</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1732,37 +1714,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.174496644295302</v>
+        <v>0.004324683965402528</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>123</v>
+        <v>2993</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>0.7464788732394366</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L22">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M22">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1774,36 +1756,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="C23">
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>14</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>76</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>0.7391304347826086</v>
@@ -1828,32 +1786,8 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="C24">
-        <v>35</v>
-      </c>
-      <c r="D24">
-        <v>35</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>217</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>0.723404255319149</v>
@@ -1878,41 +1812,17 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.08086253369272237</v>
-      </c>
-      <c r="C25">
-        <v>30</v>
-      </c>
-      <c r="D25">
-        <v>32</v>
-      </c>
-      <c r="E25">
-        <v>0.06</v>
-      </c>
-      <c r="F25">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>341</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1924,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>0.7166666666666667</v>
+        <v>0.70625</v>
       </c>
       <c r="L26">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="M26">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1950,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>0.7058823529411765</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1976,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>0.6981132075471698</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2002,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>0.68</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2028,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>0.675</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L30">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2054,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>0.6083550913838121</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L31">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="M31">
-        <v>233</v>
+        <v>59</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2080,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K32">
-        <v>0.6041666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2106,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>0.5925925925925926</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2137,42 +2047,42 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K34">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>30</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>20</v>
-      </c>
-      <c r="M34">
-        <v>20</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K35">
-        <v>0.5730337078651685</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L35">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2184,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K36">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2210,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K37">
-        <v>0.5638297872340425</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L37">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2236,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K38">
-        <v>0.55</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2262,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K39">
-        <v>0.5205882352941177</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L39">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="M39">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2288,21 +2198,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>163</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K40">
-        <v>0.5076923076923077</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2314,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2340,21 +2250,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K42">
-        <v>0.4813559322033898</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L42">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="M42">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2366,21 +2276,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K43">
-        <v>0.4743589743589743</v>
+        <v>0.5</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2392,21 +2302,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K44">
-        <v>0.4666666666666667</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2418,21 +2328,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K45">
-        <v>0.4560669456066946</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L45">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="M45">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2444,21 +2354,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K46">
-        <v>0.4516129032258064</v>
+        <v>0.475</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2470,21 +2380,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K47">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2496,21 +2406,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K48">
-        <v>0.4242424242424243</v>
+        <v>0.4375</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2522,21 +2432,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K49">
-        <v>0.410958904109589</v>
+        <v>0.4309623430962343</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2548,47 +2458,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K50">
-        <v>0.3829787234042553</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L50">
+        <v>13</v>
+      </c>
+      <c r="M50">
+        <v>13</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>18</v>
-      </c>
-      <c r="M50">
-        <v>18</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>29</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K51">
-        <v>0.375</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2600,21 +2510,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K52">
-        <v>0.3571428571428572</v>
+        <v>0.4</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2626,21 +2536,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K53">
-        <v>0.3488372093023256</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2652,21 +2562,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K54">
-        <v>0.325</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2678,67 +2588,67 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K55">
-        <v>0.3170731707317073</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L55">
         <v>13</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N55">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K56">
-        <v>0.2542372881355932</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K57">
-        <v>0.25</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L57">
         <v>18</v>
@@ -2756,21 +2666,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K58">
-        <v>0.1574803149606299</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2782,21 +2692,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>107</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K59">
-        <v>0.1368421052631579</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2808,21 +2718,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K60">
-        <v>0.1257861635220126</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2834,47 +2744,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K61">
-        <v>0.1153846153846154</v>
+        <v>0.1259842519685039</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M61">
         <v>16</v>
       </c>
       <c r="N61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K62">
-        <v>0.1004784688995215</v>
+        <v>0.1209302325581395</v>
       </c>
       <c r="L62">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M62">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2886,21 +2796,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>376</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K63">
-        <v>0.09420289855072464</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2912,21 +2822,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K64">
-        <v>0.09202453987730061</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2938,47 +2848,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>148</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K65">
-        <v>0.09090909090909091</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K66">
-        <v>0.08653846153846154</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L66">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M66">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2990,73 +2900,73 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>380</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K67">
-        <v>0.08333333333333333</v>
+        <v>0.08633093525179857</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M67">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N67">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O67">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>209</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K68">
-        <v>0.07943925233644859</v>
+        <v>0.07033639143730887</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N68">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>197</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K69">
-        <v>0.07033639143730887</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="L69">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M69">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3068,99 +2978,99 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K70">
-        <v>0.06976744186046512</v>
+        <v>0.06163328197226502</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>200</v>
+        <v>609</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K71">
-        <v>0.06823266219239374</v>
+        <v>0.05639097744360902</v>
       </c>
       <c r="L71">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>833</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K72">
-        <v>0.06011560693641618</v>
+        <v>0.05549389567147614</v>
       </c>
       <c r="L72">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M72">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>813</v>
+        <v>851</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K73">
-        <v>0.05519480519480519</v>
+        <v>0.05480984340044743</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M73">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3172,21 +3082,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>291</v>
+        <v>845</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K74">
-        <v>0.05327413984461709</v>
+        <v>0.0530565167243368</v>
       </c>
       <c r="L74">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M74">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3198,266 +3108,214 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>853</v>
+        <v>821</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K75">
-        <v>0.04636785162287481</v>
+        <v>0.05017921146953405</v>
       </c>
       <c r="L75">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M75">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N75">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O75">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>617</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K76">
-        <v>0.04626334519572953</v>
+        <v>0.0473511486169714</v>
       </c>
       <c r="L76">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M76">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>268</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="K77">
-        <v>0.04590163934426229</v>
+        <v>0.03264382676147382</v>
       </c>
       <c r="L77">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="N77">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="O77">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>291</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K78">
-        <v>0.04526748971193416</v>
+        <v>0.02904564315352697</v>
       </c>
       <c r="L78">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M78">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>464</v>
+        <v>936</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K79">
-        <v>0.04174484052532833</v>
+        <v>0.02821869488536155</v>
       </c>
       <c r="L79">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="N79">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>2043</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K80">
-        <v>0.0293832741362609</v>
+        <v>0.02578268876611418</v>
       </c>
       <c r="L80">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="M80">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="N80">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="O80">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>3006</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K81">
-        <v>0.02292768959435626</v>
+        <v>0.0206961429915334</v>
       </c>
       <c r="L81">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M81">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>554</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K82">
-        <v>0.02282157676348548</v>
+        <v>0.01380500431406385</v>
       </c>
       <c r="L82">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M82">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N82">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="O82">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K83">
-        <v>0.01630094043887147</v>
-      </c>
-      <c r="L83">
-        <v>52</v>
-      </c>
-      <c r="M83">
-        <v>63</v>
-      </c>
-      <c r="N83">
-        <v>0.83</v>
-      </c>
-      <c r="O83">
-        <v>0.17</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K84">
-        <v>0.01380500431406385</v>
-      </c>
-      <c r="L84">
-        <v>16</v>
-      </c>
-      <c r="M84">
-        <v>18</v>
-      </c>
-      <c r="N84">
-        <v>0.89</v>
-      </c>
-      <c r="O84">
-        <v>0.11</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
         <v>1143</v>
       </c>
     </row>
